--- a/data/georgia_census/mcxeta-mtianeti/mcxeta/healthcare_staff.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/mcxeta/healthcare_staff.xlsx
@@ -1369,13 +1369,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50EE4C56-CC01-46E1-BD26-AAAB2AEF31CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC3908AD-69A7-4E32-900D-2B48FE7838E5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE783CA2-BCD9-4ABF-BDD1-15A4E4EF435E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B9A746-24E2-40B1-892D-8C12BDC51250}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF98F8E-6843-4B04-A1B1-4C0ABA34E3C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF7DB71-A27D-4067-95D9-ACF0FA233624}"/>
 </file>